--- a/raw-data/ocs_invertebrates_kg.xlsx
+++ b/raw-data/ocs_invertebrates_kg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/OCS-microinvertebrates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/OCS_microarthropods/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA6DAEF-93B1-F942-9F4B-918259E05604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C780F5D-68FC-AF47-A55D-9907A5325A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14740" yWindow="-28180" windowWidth="34560" windowHeight="20460" xr2:uid="{A40BAD40-421F-4348-98E1-64C3DC81BF66}"/>
+    <workbookView xWindow="3840" yWindow="-21100" windowWidth="34560" windowHeight="20460" xr2:uid="{A40BAD40-421F-4348-98E1-64C3DC81BF66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
   <si>
     <t>sample</t>
   </si>
@@ -71,18 +71,6 @@
     <t>sminthuridae</t>
   </si>
   <si>
-    <t>total_astigmata</t>
-  </si>
-  <si>
-    <t>total_mesostigmata</t>
-  </si>
-  <si>
-    <t>total_oribatida</t>
-  </si>
-  <si>
-    <t>total_prostigmata</t>
-  </si>
-  <si>
     <t>phoretic_hypopi</t>
   </si>
   <si>
@@ -95,12 +83,6 @@
     <t>enchytraeidae</t>
   </si>
   <si>
-    <t>total_coleoptera</t>
-  </si>
-  <si>
-    <t>total_diptera</t>
-  </si>
-  <si>
     <t>hemiptera</t>
   </si>
   <si>
@@ -209,9 +191,6 @@
     <t>Block 1 Alley</t>
   </si>
   <si>
-    <t>Alleyway</t>
-  </si>
-  <si>
     <t>Block 2 Alley</t>
   </si>
   <si>
@@ -224,9 +203,6 @@
     <t>Field 1.1</t>
   </si>
   <si>
-    <t>continuous corn</t>
-  </si>
-  <si>
     <t>Field 1.2</t>
   </si>
   <si>
@@ -257,10 +233,37 @@
     <t>RT</t>
   </si>
   <si>
-    <t>treatments</t>
-  </si>
-  <si>
     <t>total_mites</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Alley</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>astigmata</t>
+  </si>
+  <si>
+    <t>mesostigmata</t>
+  </si>
+  <si>
+    <t>oribatida</t>
+  </si>
+  <si>
+    <t>prostigmata</t>
+  </si>
+  <si>
+    <t>coleoptera</t>
+  </si>
+  <si>
+    <t>diptera</t>
   </si>
 </sst>
 </file>
@@ -276,18 +279,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -304,7 +301,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,15 +636,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3509ED-C331-F74A-8530-A3EA143FFFF6}">
-  <dimension ref="A1:AA41"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -655,111 +670,108 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>66</v>
-      </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" t="s">
         <v>74</v>
       </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>18</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44677</v>
       </c>
       <c r="F2">
-        <v>45042</v>
+        <v>80.112157019827748</v>
       </c>
       <c r="G2">
-        <v>80.112157019827748</v>
+        <v>28.61148464993849</v>
       </c>
       <c r="H2">
-        <v>28.61148464993849</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>20.028039254956941</v>
       </c>
       <c r="J2">
-        <v>20.028039254956941</v>
+        <v>2.8611484649938488</v>
       </c>
       <c r="K2">
         <v>2.8611484649938488</v>
@@ -768,81 +780,78 @@
         <v>2.8611484649938488</v>
       </c>
       <c r="M2">
+        <v>25.75033618494464</v>
+      </c>
+      <c r="N2">
+        <v>8.5834453949815455</v>
+      </c>
+      <c r="O2">
+        <v>14.305742324969243</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>2.8611484649938488</v>
       </c>
-      <c r="N2">
-        <v>25.75033618494464</v>
-      </c>
-      <c r="O2">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>2.8611484649938488</v>
+      </c>
+      <c r="U2">
         <v>8.5834453949815455</v>
       </c>
-      <c r="P2">
-        <v>14.305742324969243</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>2.8611484649938488</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>2.8611484649938488</v>
-      </c>
       <c r="V2">
-        <v>8.5834453949815455</v>
+        <v>5.7222969299876976</v>
       </c>
       <c r="W2">
         <v>5.7222969299876976</v>
       </c>
       <c r="X2">
-        <v>5.7222969299876976</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
         <v>2.8611484649938488</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44677</v>
       </c>
       <c r="F3">
-        <v>45042</v>
+        <v>104.34114061341607</v>
       </c>
       <c r="G3">
-        <v>104.34114061341607</v>
+        <v>8.2374584694802166</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>8.2374584694802166</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
-        <v>8.2374584694802166</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -851,25 +860,25 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>96.103682143935856</v>
       </c>
       <c r="N3">
-        <v>96.103682143935856</v>
+        <v>41.187292347401083</v>
       </c>
       <c r="O3">
-        <v>41.187292347401083</v>
+        <v>32.949833877920867</v>
       </c>
       <c r="P3">
-        <v>32.949833877920867</v>
+        <v>5.4916389796534775</v>
       </c>
       <c r="Q3">
-        <v>5.4916389796534775</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>16.474916938960433</v>
       </c>
       <c r="S3">
-        <v>16.474916938960433</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -892,76 +901,73 @@
       <c r="Z3">
         <v>0</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>2</v>
+      <c r="C4" t="s">
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44677</v>
       </c>
       <c r="F4">
-        <v>45042</v>
+        <v>3.1332247148765515</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <v>3.1332247148765515</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
       <c r="V4">
-        <v>3.1332247148765515</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -975,79 +981,76 @@
       <c r="Z4">
         <v>0</v>
       </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="C5" t="s">
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44677</v>
       </c>
       <c r="F5">
-        <v>45042</v>
+        <v>18.332925934979226</v>
       </c>
       <c r="G5">
-        <v>18.332925934979226</v>
+        <v>6.1109753116597414</v>
       </c>
       <c r="H5">
-        <v>6.1109753116597414</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.0554876558298707</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>3.0554876558298707</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>9.166462967489613</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>9.166462967489613</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>3.0554876558298707</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>9.166462967489613</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>9.166462967489613</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
       <c r="W5">
-        <v>3.0554876558298707</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1058,76 +1061,73 @@
       <c r="Z5">
         <v>0</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>3</v>
+      <c r="C6" t="s">
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44677</v>
       </c>
       <c r="F6">
-        <v>45042</v>
+        <v>8.2095066086528199</v>
       </c>
       <c r="G6">
-        <v>8.2095066086528199</v>
+        <v>2.7365022028842736</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>2.7365022028842736</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>2.7365022028842736</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>2.7365022028842736</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>2.7365022028842736</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
       <c r="V6">
-        <v>2.7365022028842736</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1141,76 +1141,73 @@
       <c r="Z6">
         <v>0</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>3</v>
+      <c r="C7" t="s">
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44677</v>
       </c>
       <c r="F7">
-        <v>45042</v>
+        <v>36.904559132458978</v>
       </c>
       <c r="G7">
-        <v>36.904559132458978</v>
+        <v>19.87168568670868</v>
       </c>
       <c r="H7">
-        <v>19.87168568670868</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>11.355248963833532</v>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>8.5164367228751487</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>11.355248963833532</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>8.5164367228751487</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
-        <v>11.355248963833532</v>
+        <v>2.8388122409583829</v>
       </c>
       <c r="O7">
+        <v>5.6776244819167658</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>2.8388122409583829</v>
       </c>
-      <c r="P7">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>5.6776244819167658</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>2.8388122409583829</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
       <c r="V7">
-        <v>5.6776244819167658</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1224,79 +1221,76 @@
       <c r="Z7">
         <v>0</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>4</v>
+      <c r="C8" t="s">
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44677</v>
       </c>
       <c r="F8">
-        <v>45042</v>
+        <v>30.504714364947311</v>
       </c>
       <c r="G8">
-        <v>30.504714364947311</v>
+        <v>2.7731558513588466</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>2.7731558513588466</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>24.958402662229616</v>
+      </c>
+      <c r="N8">
+        <v>19.412090959511925</v>
+      </c>
+      <c r="O8">
+        <v>5.5463117027176931</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
         <v>2.7731558513588466</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>24.958402662229616</v>
-      </c>
-      <c r="O8">
-        <v>19.412090959511925</v>
-      </c>
-      <c r="P8">
-        <v>5.5463117027176931</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
       <c r="W8">
-        <v>2.7731558513588466</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1307,40 +1301,37 @@
       <c r="Z8">
         <v>0</v>
       </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>4</v>
+      <c r="C9" t="s">
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44677</v>
       </c>
       <c r="F9">
-        <v>45042</v>
+        <v>19.600156801254407</v>
       </c>
       <c r="G9">
-        <v>19.600156801254407</v>
+        <v>11.200089600716804</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>11.200089600716804</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
-        <v>11.200089600716804</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1349,13 +1340,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.4000672005376043</v>
       </c>
       <c r="N9">
         <v>8.4000672005376043</v>
       </c>
       <c r="O9">
-        <v>8.4000672005376043</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1390,40 +1381,37 @@
       <c r="Z9">
         <v>0</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="C10" t="s">
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44677</v>
       </c>
       <c r="F10">
-        <v>45042</v>
+        <v>22.986157225315424</v>
       </c>
       <c r="G10">
-        <v>22.986157225315424</v>
+        <v>7.6620524084384751</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>7.6620524084384751</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
-        <v>7.6620524084384751</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1432,40 +1420,40 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.1080349389589834</v>
       </c>
       <c r="N10">
+        <v>2.5540174694794917</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>2.5540174694794917</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>5.1080349389589834</v>
       </c>
-      <c r="O10">
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <v>2.5540174694794917</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2.5540174694794917</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>5.1080349389589834</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
       </c>
       <c r="W10">
         <v>2.5540174694794917</v>
       </c>
       <c r="X10">
-        <v>2.5540174694794917</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1473,40 +1461,37 @@
       <c r="Z10">
         <v>0</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="C11" t="s">
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44677</v>
       </c>
       <c r="F11">
-        <v>45042</v>
+        <v>70.930968967701077</v>
       </c>
       <c r="G11">
-        <v>70.930968967701077</v>
+        <v>5.06649778340722</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>5.06649778340722</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
-        <v>5.06649778340722</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1515,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>63.331222292590247</v>
       </c>
       <c r="N11">
-        <v>63.331222292590247</v>
+        <v>2.53324889170361</v>
       </c>
       <c r="O11">
         <v>2.53324889170361</v>
@@ -1527,28 +1512,28 @@
         <v>2.53324889170361</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>53.198226725775811</v>
+      </c>
+      <c r="S11">
         <v>2.53324889170361</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>53.198226725775811</v>
-      </c>
       <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
         <v>2.53324889170361</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
       <c r="X11">
-        <v>2.53324889170361</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1556,82 +1541,79 @@
       <c r="Z11">
         <v>0</v>
       </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12">
-        <v>2</v>
+      <c r="C12" t="s">
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44677</v>
       </c>
       <c r="F12">
-        <v>45042</v>
+        <v>50.006945409084601</v>
       </c>
       <c r="G12">
-        <v>50.006945409084601</v>
+        <v>13.890818169190167</v>
       </c>
       <c r="H12">
-        <v>13.890818169190167</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>8.3344909015140995</v>
       </c>
       <c r="J12">
-        <v>8.3344909015140995</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.7781636338380333</v>
       </c>
       <c r="L12">
         <v>2.7781636338380333</v>
       </c>
       <c r="M12">
+        <v>25.003472704542297</v>
+      </c>
+      <c r="N12">
+        <v>13.890818169190165</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>11.112654535352133</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
         <v>2.7781636338380333</v>
       </c>
-      <c r="N12">
-        <v>25.003472704542297</v>
-      </c>
-      <c r="O12">
-        <v>13.890818169190165</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>11.112654535352133</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
       <c r="W12">
-        <v>2.7781636338380333</v>
+        <v>8.3344909015140995</v>
       </c>
       <c r="X12">
-        <v>8.3344909015140995</v>
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1639,82 +1621,79 @@
       <c r="Z12">
         <v>0</v>
       </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13">
-        <v>2</v>
+      <c r="C13" t="s">
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44677</v>
       </c>
       <c r="F13">
-        <v>45042</v>
+        <v>81.090353366809097</v>
       </c>
       <c r="G13">
-        <v>81.090353366809097</v>
+        <v>31.188597448772732</v>
       </c>
       <c r="H13">
-        <v>31.188597448772732</v>
+        <v>3.1188597448772732</v>
       </c>
       <c r="I13">
+        <v>24.950877959018186</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>3.1188597448772732</v>
       </c>
-      <c r="J13">
-        <v>24.950877959018186</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
       <c r="M13">
+        <v>46.782896173159095</v>
+      </c>
+      <c r="N13">
+        <v>34.307457193650002</v>
+      </c>
+      <c r="O13">
+        <v>12.475438979509093</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
         <v>3.1188597448772732</v>
       </c>
-      <c r="N13">
-        <v>46.782896173159095</v>
-      </c>
-      <c r="O13">
-        <v>34.307457193650002</v>
-      </c>
-      <c r="P13">
-        <v>12.475438979509093</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
       <c r="X13">
-        <v>3.1188597448772732</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1722,67 +1701,64 @@
       <c r="Z13">
         <v>0</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14">
-        <v>3</v>
+      <c r="C14" t="s">
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44677</v>
       </c>
       <c r="F14">
-        <v>45042</v>
+        <v>34.445146104828062</v>
       </c>
       <c r="G14">
-        <v>34.445146104828062</v>
+        <v>11.481715368276019</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>11.481715368276019</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>22.963430736552041</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>11.481715368276019</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>22.963430736552041</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
       <c r="P14">
-        <v>11.481715368276019</v>
+        <v>2.8704288420690047</v>
       </c>
       <c r="Q14">
-        <v>2.8704288420690047</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>8.6112865262070155</v>
       </c>
       <c r="S14">
-        <v>8.6112865262070155</v>
+        <v>0</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -1805,79 +1781,76 @@
       <c r="Z14">
         <v>0</v>
       </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15">
-        <v>3</v>
+      <c r="C15" t="s">
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="E15" s="1">
+        <v>44677</v>
       </c>
       <c r="F15">
-        <v>45042</v>
+        <v>52.330064999449164</v>
       </c>
       <c r="G15">
-        <v>52.330064999449164</v>
+        <v>8.2626418420182883</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>5.5084278946788592</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>2.7542139473394296</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>38.558995262752013</v>
+      </c>
+      <c r="N15">
+        <v>24.787925526054867</v>
+      </c>
+      <c r="O15">
+        <v>5.5084278946788592</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>8.2626418420182883</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>5.5084278946788592</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
         <v>2.7542139473394296</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>38.558995262752013</v>
-      </c>
-      <c r="O15">
-        <v>24.787925526054867</v>
-      </c>
-      <c r="P15">
-        <v>5.5084278946788592</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>8.2626418420182883</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
       </c>
       <c r="V15">
         <v>2.7542139473394296</v>
       </c>
       <c r="W15">
-        <v>2.7542139473394296</v>
+        <v>0</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -1888,61 +1861,58 @@
       <c r="Z15">
         <v>0</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16">
-        <v>4</v>
+      <c r="C16" t="s">
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="E16" s="1">
+        <v>44677</v>
       </c>
       <c r="F16">
-        <v>45042</v>
+        <v>23.546032493524844</v>
       </c>
       <c r="G16">
-        <v>23.546032493524844</v>
+        <v>10.464903330455487</v>
       </c>
       <c r="H16">
-        <v>10.464903330455487</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>7.8486774978416145</v>
       </c>
       <c r="J16">
-        <v>7.8486774978416145</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.6162258326138716</v>
       </c>
       <c r="L16">
-        <v>2.6162258326138716</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.081129163069358</v>
       </c>
       <c r="N16">
-        <v>13.081129163069358</v>
+        <v>5.2324516652277433</v>
       </c>
       <c r="O16">
         <v>5.2324516652277433</v>
       </c>
       <c r="P16">
-        <v>5.2324516652277433</v>
+        <v>2.6162258326138716</v>
       </c>
       <c r="Q16">
-        <v>2.6162258326138716</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -1971,55 +1941,52 @@
       <c r="Z16">
         <v>0</v>
       </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17">
-        <v>4</v>
+      <c r="C17" t="s">
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="E17" s="1">
+        <v>44677</v>
       </c>
       <c r="F17">
-        <v>45042</v>
+        <v>39.795512290690915</v>
       </c>
       <c r="G17">
-        <v>39.795512290690915</v>
+        <v>18.367159518780422</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>18.367159518780422</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
       <c r="L17">
-        <v>18.367159518780422</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>21.428352771910493</v>
       </c>
       <c r="N17">
-        <v>21.428352771910493</v>
+        <v>12.244773012520282</v>
       </c>
       <c r="O17">
-        <v>12.244773012520282</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2028,13 +1995,13 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>6.122386506260141</v>
       </c>
       <c r="S17">
-        <v>6.122386506260141</v>
+        <v>3.0611932531300705</v>
       </c>
       <c r="T17">
-        <v>3.0611932531300705</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -2054,40 +2021,37 @@
       <c r="Z17">
         <v>0</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="C18" t="s">
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="E18" s="1">
+        <v>44677</v>
       </c>
       <c r="F18">
-        <v>45042</v>
+        <v>24.559297058341976</v>
       </c>
       <c r="G18">
-        <v>24.559297058341976</v>
+        <v>13.644053921301099</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>13.644053921301099</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
-        <v>13.644053921301099</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2096,19 +2060,19 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.1864323527806597</v>
       </c>
       <c r="N18">
-        <v>8.1864323527806597</v>
+        <v>5.4576215685204392</v>
       </c>
       <c r="O18">
-        <v>5.4576215685204392</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>2.7288107842602196</v>
       </c>
       <c r="Q18">
-        <v>2.7288107842602196</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2137,67 +2101,64 @@
       <c r="Z18">
         <v>0</v>
       </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="C19" t="s">
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="E19" s="1">
+        <v>44677</v>
       </c>
       <c r="F19">
-        <v>45042</v>
+        <v>35.387630662020911</v>
       </c>
       <c r="G19">
-        <v>35.387630662020911</v>
+        <v>13.61062717770035</v>
       </c>
       <c r="H19">
-        <v>13.61062717770035</v>
+        <v>2.7221254355400699</v>
       </c>
       <c r="I19">
         <v>2.7221254355400699</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>5.4442508710801398</v>
+      </c>
+      <c r="L19">
         <v>2.7221254355400699</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>5.4442508710801398</v>
-      </c>
       <c r="M19">
+        <v>21.777003484320559</v>
+      </c>
+      <c r="N19">
         <v>2.7221254355400699</v>
-      </c>
-      <c r="N19">
-        <v>21.777003484320559</v>
       </c>
       <c r="O19">
         <v>2.7221254355400699</v>
       </c>
       <c r="P19">
-        <v>2.7221254355400699</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>16.332752613240419</v>
       </c>
       <c r="S19">
-        <v>16.332752613240419</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -2220,82 +2181,79 @@
       <c r="Z19">
         <v>0</v>
       </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
-      <c r="C20">
-        <v>2</v>
+      <c r="C20" t="s">
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="E20" s="1">
+        <v>44677</v>
       </c>
       <c r="F20">
-        <v>45042</v>
+        <v>39.179469957742143</v>
       </c>
       <c r="G20">
-        <v>39.179469957742143</v>
+        <v>13.992667842050764</v>
       </c>
       <c r="H20">
-        <v>13.992667842050764</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>8.3956007052304589</v>
       </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>5.5970671368203062</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>16.791201410460918</v>
+      </c>
+      <c r="N20">
+        <v>5.5970671368203062</v>
+      </c>
+      <c r="O20">
         <v>8.3956007052304589</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="P20">
+        <v>2.7985335684101531</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>2.7985335684101531</v>
+      </c>
+      <c r="W20">
         <v>5.5970671368203062</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>16.791201410460918</v>
-      </c>
-      <c r="O20">
-        <v>5.5970671368203062</v>
-      </c>
-      <c r="P20">
-        <v>8.3956007052304589</v>
-      </c>
-      <c r="Q20">
-        <v>2.7985335684101531</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>2.7985335684101531</v>
-      </c>
       <c r="X20">
-        <v>5.5970671368203062</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2303,40 +2261,37 @@
       <c r="Z20">
         <v>0</v>
       </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
-      <c r="C21">
-        <v>2</v>
+      <c r="C21" t="s">
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="E21" s="1">
+        <v>44677</v>
       </c>
       <c r="F21">
-        <v>45042</v>
+        <v>27.848171767523464</v>
       </c>
       <c r="G21">
-        <v>27.848171767523464</v>
+        <v>11.139268707009386</v>
       </c>
       <c r="H21">
-        <v>11.139268707009386</v>
+        <v>5.5696343535046928</v>
       </c>
       <c r="I21">
         <v>5.5696343535046928</v>
       </c>
       <c r="J21">
-        <v>5.5696343535046928</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2345,28 +2300,28 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.708903060514078</v>
       </c>
       <c r="N21">
-        <v>16.708903060514078</v>
+        <v>11.139268707009386</v>
       </c>
       <c r="O21">
-        <v>11.139268707009386</v>
+        <v>2.7848171767523464</v>
       </c>
       <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>2.7848171767523464</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
       <c r="T21">
-        <v>2.7848171767523464</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2386,82 +2341,79 @@
       <c r="Z21">
         <v>0</v>
       </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22">
-        <v>3</v>
+      <c r="C22" t="s">
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="E22" s="1">
+        <v>44677</v>
       </c>
       <c r="F22">
-        <v>45042</v>
+        <v>33.957779161242854</v>
       </c>
       <c r="G22">
-        <v>33.957779161242854</v>
+        <v>8.4894447903107135</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>2.8298149301035713</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>5.6596298602071426</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>16.978889580621427</v>
+      </c>
+      <c r="N22">
+        <v>2.8298149301035713</v>
+      </c>
+      <c r="O22">
         <v>8.4894447903107135</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>5.6596298602071426</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>2.8298149301035713</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
+      <c r="W22">
         <v>5.6596298602071426</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>16.978889580621427</v>
-      </c>
-      <c r="O22">
-        <v>2.8298149301035713</v>
-      </c>
-      <c r="P22">
-        <v>8.4894447903107135</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>5.6596298602071426</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>2.8298149301035713</v>
-      </c>
       <c r="X22">
-        <v>5.6596298602071426</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2469,67 +2421,64 @@
       <c r="Z22">
         <v>0</v>
       </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
-      <c r="C23">
-        <v>3</v>
+      <c r="C23" t="s">
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="E23" s="1">
+        <v>44677</v>
       </c>
       <c r="F23">
-        <v>45042</v>
+        <v>32.297133629390395</v>
       </c>
       <c r="G23">
-        <v>32.297133629390395</v>
+        <v>10.765711209796798</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>8.0742834073475986</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>2.6914278024491995</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>21.531422419593596</v>
+      </c>
+      <c r="N23">
+        <v>2.6914278024491995</v>
+      </c>
+      <c r="O23">
+        <v>5.3828556048983991</v>
+      </c>
+      <c r="P23">
+        <v>2.6914278024491995</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>10.765711209796798</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>8.0742834073475986</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>2.6914278024491995</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>21.531422419593596</v>
-      </c>
-      <c r="O23">
-        <v>2.6914278024491995</v>
-      </c>
-      <c r="P23">
-        <v>5.3828556048983991</v>
-      </c>
-      <c r="Q23">
-        <v>2.6914278024491995</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
       <c r="S23">
-        <v>10.765711209796798</v>
+        <v>0</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -2552,144 +2501,138 @@
       <c r="Z23">
         <v>0</v>
       </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24">
-        <v>4</v>
+      <c r="C24" t="s">
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="E24" s="1">
+        <v>44677</v>
       </c>
       <c r="F24">
-        <v>45042</v>
+        <v>56.844327748152573</v>
       </c>
       <c r="G24">
-        <v>56.844327748152573</v>
+        <v>10.827490999648109</v>
       </c>
       <c r="H24">
-        <v>10.827490999648109</v>
+        <v>2.7068727499120273</v>
       </c>
       <c r="I24">
+        <v>5.4137454998240546</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>2.7068727499120273</v>
       </c>
-      <c r="J24">
-        <v>5.4137454998240546</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
       <c r="M24">
+        <v>35.189345748856354</v>
+      </c>
+      <c r="N24">
+        <v>18.948109249384192</v>
+      </c>
+      <c r="O24">
         <v>2.7068727499120273</v>
-      </c>
-      <c r="N24">
-        <v>35.189345748856354</v>
-      </c>
-      <c r="O24">
-        <v>18.948109249384192</v>
       </c>
       <c r="P24">
         <v>2.7068727499120273</v>
       </c>
       <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>10.827490999648109</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>8.120618249736081</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
         <v>2.7068727499120273</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>10.827490999648109</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>8.120618249736081</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
       <c r="Y24">
-        <v>2.7068727499120273</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
-      <c r="C25">
-        <v>4</v>
+      <c r="C25" t="s">
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="E25" s="1">
+        <v>44677</v>
       </c>
       <c r="F25">
-        <v>45042</v>
+        <v>30.048076923076927</v>
       </c>
       <c r="G25">
-        <v>30.048076923076927</v>
+        <v>16.389860139860144</v>
       </c>
       <c r="H25">
-        <v>16.389860139860144</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>13.658216783216785</v>
       </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>2.7316433566433571</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>13.658216783216785</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>2.7316433566433571</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
       <c r="N25">
-        <v>13.658216783216785</v>
+        <v>5.4632867132867142</v>
       </c>
       <c r="O25">
         <v>5.4632867132867142</v>
       </c>
       <c r="P25">
-        <v>5.4632867132867142</v>
+        <v>2.7316433566433571</v>
       </c>
       <c r="Q25">
-        <v>2.7316433566433571</v>
+        <v>0</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -2718,82 +2661,79 @@
       <c r="Z25">
         <v>0</v>
       </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
-      <c r="C26">
-        <v>1</v>
+      <c r="C26" t="s">
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="E26" s="1">
+        <v>44677</v>
       </c>
       <c r="F26">
-        <v>45042</v>
+        <v>36.515388628064692</v>
       </c>
       <c r="G26">
-        <v>36.515388628064692</v>
+        <v>7.8247261345852905</v>
       </c>
       <c r="H26">
-        <v>7.8247261345852905</v>
+        <v>2.6082420448617634</v>
       </c>
       <c r="I26">
         <v>2.6082420448617634</v>
       </c>
       <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>2.6082420448617634</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
       <c r="M26">
+        <v>20.865936358894107</v>
+      </c>
+      <c r="N26">
+        <v>5.2164840897235267</v>
+      </c>
+      <c r="O26">
         <v>2.6082420448617634</v>
       </c>
-      <c r="N26">
-        <v>20.865936358894107</v>
-      </c>
-      <c r="O26">
+      <c r="P26">
+        <v>13.041210224308816</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>2.6082420448617634</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
         <v>5.2164840897235267</v>
       </c>
-      <c r="P26">
-        <v>2.6082420448617634</v>
-      </c>
-      <c r="Q26">
-        <v>13.041210224308816</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>2.6082420448617634</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
       <c r="X26">
-        <v>5.2164840897235267</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2801,82 +2741,79 @@
       <c r="Z26">
         <v>0</v>
       </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
-      <c r="C27">
-        <v>1</v>
+      <c r="C27" t="s">
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="E27" s="1">
+        <v>44677</v>
       </c>
       <c r="F27">
-        <v>45042</v>
+        <v>69.294306779754976</v>
       </c>
       <c r="G27">
-        <v>69.294306779754976</v>
+        <v>11.087089084760796</v>
       </c>
       <c r="H27">
-        <v>11.087089084760796</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2.7717722711901991</v>
       </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>5.5435445423803982</v>
+      </c>
+      <c r="L27">
         <v>2.7717722711901991</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
+      <c r="M27">
+        <v>55.435445423803984</v>
+      </c>
+      <c r="N27">
         <v>5.5435445423803982</v>
       </c>
-      <c r="M27">
+      <c r="O27">
+        <v>22.174178169521593</v>
+      </c>
+      <c r="P27">
         <v>2.7717722711901991</v>
       </c>
-      <c r="N27">
-        <v>55.435445423803984</v>
-      </c>
-      <c r="O27">
-        <v>5.5435445423803982</v>
-      </c>
-      <c r="P27">
-        <v>22.174178169521593</v>
-      </c>
       <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>24.94595044071179</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
         <v>2.7717722711901991</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>24.94595044071179</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
       <c r="X27">
-        <v>2.7717722711901991</v>
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2884,82 +2821,79 @@
       <c r="Z27">
         <v>0</v>
       </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
-      <c r="C28">
-        <v>2</v>
+      <c r="C28" t="s">
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="E28" s="1">
+        <v>44677</v>
       </c>
       <c r="F28">
-        <v>45042</v>
+        <v>85.472368385907743</v>
       </c>
       <c r="G28">
-        <v>85.472368385907743</v>
+        <v>5.3420230241192339</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>5.3420230241192339</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
       <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>32.052138144715407</v>
+      </c>
+      <c r="N28">
+        <v>21.368092096476936</v>
+      </c>
+      <c r="O28">
         <v>5.3420230241192339</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>32.052138144715407</v>
-      </c>
-      <c r="O28">
+      <c r="P28">
+        <v>2.671011512059617</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>2.671011512059617</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>2.671011512059617</v>
+      </c>
+      <c r="V28">
         <v>21.368092096476936</v>
       </c>
-      <c r="P28">
-        <v>5.3420230241192339</v>
-      </c>
-      <c r="Q28">
-        <v>2.671011512059617</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>2.671011512059617</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>2.671011512059617</v>
-      </c>
       <c r="W28">
-        <v>21.368092096476936</v>
+        <v>24.039103608536553</v>
       </c>
       <c r="X28">
-        <v>24.039103608536553</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2967,67 +2901,64 @@
       <c r="Z28">
         <v>0</v>
       </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29">
-        <v>2</v>
+      <c r="C29" t="s">
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="E29" s="1">
+        <v>44677</v>
       </c>
       <c r="F29">
-        <v>45042</v>
+        <v>59.672344580666163</v>
       </c>
       <c r="G29">
-        <v>59.672344580666163</v>
+        <v>13.561896495605946</v>
       </c>
       <c r="H29">
-        <v>13.561896495605946</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>5.4247585982423789</v>
       </c>
       <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>5.4247585982423789</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
       <c r="L29">
+        <v>2.7123792991211895</v>
+      </c>
+      <c r="M29">
+        <v>46.11044808506022</v>
+      </c>
+      <c r="N29">
+        <v>40.685689486817843</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
         <v>5.4247585982423789</v>
       </c>
-      <c r="M29">
-        <v>2.7123792991211895</v>
-      </c>
-      <c r="N29">
-        <v>46.11044808506022</v>
-      </c>
-      <c r="O29">
-        <v>40.685689486817843</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
       <c r="S29">
-        <v>5.4247585982423789</v>
+        <v>0</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -3050,67 +2981,64 @@
       <c r="Z29">
         <v>0</v>
       </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30">
-        <v>3</v>
+      <c r="C30" t="s">
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="E30" s="1">
+        <v>44677</v>
       </c>
       <c r="F30">
-        <v>45042</v>
+        <v>66.194816436682117</v>
       </c>
       <c r="G30">
-        <v>66.194816436682117</v>
+        <v>30.551453740007133</v>
       </c>
       <c r="H30">
-        <v>30.551453740007133</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>10.183817913335711</v>
       </c>
       <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>20.367635826671421</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>28.005499261673204</v>
+      </c>
+      <c r="N30">
         <v>10.183817913335711</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>20.367635826671421</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>28.005499261673204</v>
-      </c>
       <c r="O30">
-        <v>10.183817913335711</v>
+        <v>5.0919089566678553</v>
       </c>
       <c r="P30">
-        <v>5.0919089566678553</v>
+        <v>0</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>12.729772391669638</v>
       </c>
       <c r="S30">
-        <v>12.729772391669638</v>
+        <v>0</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -3122,10 +3050,10 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>7.6378634350017833</v>
       </c>
       <c r="X30">
-        <v>7.6378634350017833</v>
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3133,67 +3061,64 @@
       <c r="Z30">
         <v>0</v>
       </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31">
-        <v>3</v>
+      <c r="C31" t="s">
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="E31" s="1">
+        <v>44677</v>
       </c>
       <c r="F31">
-        <v>45042</v>
+        <v>60.14958941367226</v>
       </c>
       <c r="G31">
-        <v>60.14958941367226</v>
+        <v>5.2303990794497617</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>5.2303990794497617</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
       <c r="L31">
-        <v>5.2303990794497617</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>54.919190334222499</v>
       </c>
       <c r="N31">
-        <v>54.919190334222499</v>
+        <v>10.460798158899523</v>
       </c>
       <c r="O31">
-        <v>10.460798158899523</v>
+        <v>2.6151995397248808</v>
       </c>
       <c r="P31">
-        <v>2.6151995397248808</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>41.843192635598093</v>
       </c>
       <c r="S31">
-        <v>41.843192635598093</v>
+        <v>0</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -3216,82 +3141,79 @@
       <c r="Z31">
         <v>0</v>
       </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
-      <c r="C32">
-        <v>4</v>
+      <c r="C32" t="s">
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="E32" s="1">
+        <v>44677</v>
       </c>
       <c r="F32">
-        <v>45042</v>
+        <v>65.794884447734191</v>
       </c>
       <c r="G32">
-        <v>65.794884447734191</v>
+        <v>21.93162814924473</v>
       </c>
       <c r="H32">
-        <v>21.93162814924473</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>19.190174630589141</v>
       </c>
       <c r="J32">
-        <v>19.190174630589141</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>2.7414535186555913</v>
       </c>
       <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>38.380349261178274</v>
+      </c>
+      <c r="N32">
+        <v>16.448721111933548</v>
+      </c>
+      <c r="O32">
+        <v>8.2243605559667738</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>13.707267593277956</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
         <v>2.7414535186555913</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>38.380349261178274</v>
-      </c>
-      <c r="O32">
-        <v>16.448721111933548</v>
-      </c>
-      <c r="P32">
-        <v>8.2243605559667738</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>13.707267593277956</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
       </c>
       <c r="W32">
         <v>2.7414535186555913</v>
       </c>
       <c r="X32">
-        <v>2.7414535186555913</v>
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3299,67 +3221,64 @@
       <c r="Z32">
         <v>0</v>
       </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33">
-        <v>4</v>
+      <c r="C33" t="s">
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="E33" s="1">
+        <v>44677</v>
       </c>
       <c r="F33">
-        <v>45042</v>
+        <v>24.685715094253574</v>
       </c>
       <c r="G33">
-        <v>24.685715094253574</v>
+        <v>16.458196181698487</v>
       </c>
       <c r="H33">
-        <v>16.458196181698487</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>13.715163484748738</v>
       </c>
       <c r="J33">
-        <v>13.715163484748738</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>2.7430326969497476</v>
       </c>
       <c r="M33">
+        <v>8.2275189125550856</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
         <v>2.7430326969497476</v>
       </c>
-      <c r="N33">
-        <v>8.2275189125550856</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
       <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>2.7414535186555913</v>
+      </c>
+      <c r="R33">
         <v>2.7430326969497476</v>
       </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>2.7414535186555913</v>
-      </c>
       <c r="S33">
-        <v>2.7430326969497476</v>
+        <v>0</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -3382,79 +3301,76 @@
       <c r="Z33">
         <v>0</v>
       </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>57</v>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="1">
+        <v>44677</v>
       </c>
       <c r="F34">
-        <v>45042</v>
+        <v>102.12120327954952</v>
       </c>
       <c r="G34">
-        <v>102.12120327954952</v>
+        <v>14.588743325649929</v>
       </c>
       <c r="H34">
-        <v>14.588743325649929</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>11.670994660519943</v>
       </c>
       <c r="J34">
-        <v>11.670994660519943</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>2.9177486651299858</v>
       </c>
       <c r="M34">
+        <v>84.614711288769598</v>
+      </c>
+      <c r="N34">
+        <v>75.861465293379638</v>
+      </c>
+      <c r="O34">
         <v>2.9177486651299858</v>
       </c>
-      <c r="N34">
-        <v>84.614711288769598</v>
-      </c>
-      <c r="O34">
-        <v>75.861465293379638</v>
-      </c>
       <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>5.8354973302599715</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
         <v>2.9177486651299858</v>
       </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>5.8354973302599715</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
       <c r="W34">
-        <v>2.9177486651299858</v>
+        <v>0</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -3465,150 +3381,144 @@
       <c r="Z34">
         <v>0</v>
       </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B35">
         <v>5</v>
       </c>
-      <c r="C35">
-        <v>5</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
-        <v>57</v>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="1">
+        <v>44677</v>
       </c>
       <c r="F35">
-        <v>45042</v>
+        <v>64.592894781574046</v>
       </c>
       <c r="G35">
-        <v>64.592894781574046</v>
+        <v>27.197008329083808</v>
       </c>
       <c r="H35">
-        <v>27.197008329083808</v>
+        <v>3.3996260411354755</v>
       </c>
       <c r="I35">
+        <v>16.998130205677377</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>3.3996260411354755</v>
-      </c>
-      <c r="J35">
-        <v>16.998130205677377</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
       </c>
       <c r="L35">
         <v>3.3996260411354755</v>
       </c>
       <c r="M35">
+        <v>23.797382287948331</v>
+      </c>
+      <c r="N35">
+        <v>6.799252082270951</v>
+      </c>
+      <c r="O35">
         <v>3.3996260411354755</v>
       </c>
-      <c r="N35">
-        <v>23.797382287948331</v>
-      </c>
-      <c r="O35">
-        <v>6.799252082270951</v>
-      </c>
       <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>13.598504164541902</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
         <v>3.3996260411354755</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>13.598504164541902</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
       </c>
       <c r="V35">
         <v>3.3996260411354755</v>
       </c>
       <c r="W35">
-        <v>3.3996260411354755</v>
+        <v>0</v>
       </c>
       <c r="X35">
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>6.799252082270951</v>
       </c>
       <c r="Z35">
-        <v>6.799252082270951</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
-        <v>57</v>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="1">
+        <v>44677</v>
       </c>
       <c r="F36">
-        <v>45042</v>
+        <v>71.459982409850483</v>
       </c>
       <c r="G36">
-        <v>71.459982409850483</v>
+        <v>13.742304309586631</v>
       </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>13.742304309586631</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
       <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>57.717678100263853</v>
+      </c>
+      <c r="N36">
         <v>13.742304309586631</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>57.717678100263853</v>
-      </c>
       <c r="O36">
-        <v>13.742304309586631</v>
+        <v>19.239226033421286</v>
       </c>
       <c r="P36">
+        <v>5.4969217238346531</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
         <v>19.239226033421286</v>
       </c>
-      <c r="Q36">
-        <v>5.4969217238346531</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
       <c r="S36">
-        <v>19.239226033421286</v>
+        <v>0</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -3631,67 +3541,64 @@
       <c r="Z36">
         <v>0</v>
       </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
-        <v>57</v>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="1">
+        <v>44677</v>
       </c>
       <c r="F37">
-        <v>45042</v>
+        <v>144.9446843755546</v>
       </c>
       <c r="G37">
-        <v>144.9446843755546</v>
+        <v>62.119150446666261</v>
       </c>
       <c r="H37">
-        <v>62.119150446666261</v>
+        <v>2.958054783174584</v>
       </c>
       <c r="I37">
+        <v>53.244986097142515</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
         <v>2.958054783174584</v>
-      </c>
-      <c r="J37">
-        <v>53.244986097142515</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
       </c>
       <c r="L37">
         <v>2.958054783174584</v>
       </c>
       <c r="M37">
-        <v>2.958054783174584</v>
+        <v>70.99331479619002</v>
       </c>
       <c r="N37">
-        <v>70.99331479619002</v>
+        <v>38.454712181269592</v>
       </c>
       <c r="O37">
-        <v>38.454712181269592</v>
+        <v>8.8741643495237525</v>
       </c>
       <c r="P37">
         <v>8.8741643495237525</v>
       </c>
       <c r="Q37">
-        <v>8.8741643495237525</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>14.790273915872922</v>
       </c>
       <c r="S37">
-        <v>14.790273915872922</v>
+        <v>0</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -3700,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>11.832219132698336</v>
       </c>
       <c r="W37">
-        <v>11.832219132698336</v>
+        <v>0</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -3714,28 +3621,28 @@
       <c r="Z37">
         <v>0</v>
       </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B38">
         <v>6</v>
       </c>
-      <c r="C38">
-        <v>6</v>
-      </c>
-      <c r="E38" t="s">
-        <v>62</v>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="1">
+        <v>44677</v>
       </c>
       <c r="F38">
-        <v>45042</v>
+        <v>15.84929583842775</v>
       </c>
       <c r="G38">
-        <v>15.84929583842775</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3753,40 +3660,40 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>13.585110718652357</v>
       </c>
       <c r="N38">
-        <v>13.585110718652357</v>
+        <v>2.2641851197753931</v>
       </c>
       <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>11.320925598876965</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
         <v>2.2641851197753931</v>
       </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>11.320925598876965</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
       <c r="X38">
-        <v>2.2641851197753931</v>
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3794,138 +3701,138 @@
       <c r="Z38">
         <v>0</v>
       </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B39">
         <v>6</v>
       </c>
-      <c r="C39">
-        <v>6</v>
-      </c>
-      <c r="E39" t="s">
-        <v>62</v>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="1">
+        <v>44677</v>
       </c>
       <c r="F39">
-        <v>45042</v>
+        <v>38.557933294775403</v>
       </c>
       <c r="G39">
-        <v>38.557933294775403</v>
+        <v>21.688837478311164</v>
       </c>
       <c r="H39">
-        <v>21.688837478311164</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>12.049354154617312</v>
       </c>
       <c r="J39">
-        <v>12.049354154617312</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>9.6394833236938506</v>
       </c>
       <c r="M39">
-        <v>9.6394833236938506</v>
+        <v>14.459224985540775</v>
       </c>
       <c r="N39">
-        <v>14.459224985540775</v>
+        <v>2.4098708309234627</v>
       </c>
       <c r="O39">
+        <v>7.2296124927703875</v>
+      </c>
+      <c r="P39">
+        <v>4.8197416618469253</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
         <v>2.4098708309234627</v>
       </c>
-      <c r="P39">
-        <v>7.2296124927703875</v>
-      </c>
-      <c r="Q39">
-        <v>4.8197416618469253</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
       <c r="Y39">
-        <v>2.4098708309234627</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
-      <c r="C40">
-        <v>6</v>
-      </c>
-      <c r="E40" t="s">
-        <v>62</v>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="1">
+        <v>44677</v>
       </c>
       <c r="F40">
-        <v>45042</v>
+        <v>66.942196868269406</v>
       </c>
       <c r="G40">
-        <v>66.942196868269406</v>
+        <v>32.015833284824495</v>
       </c>
       <c r="H40">
-        <v>32.015833284824495</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>26.194772687583679</v>
       </c>
       <c r="J40">
-        <v>26.194772687583679</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>2.9105302986204085</v>
       </c>
       <c r="L40">
         <v>2.9105302986204085</v>
       </c>
       <c r="M40">
+        <v>34.926363583444903</v>
+      </c>
+      <c r="N40">
+        <v>20.37371209034286</v>
+      </c>
+      <c r="O40">
         <v>2.9105302986204085</v>
       </c>
-      <c r="N40">
-        <v>34.926363583444903</v>
-      </c>
-      <c r="O40">
-        <v>20.37371209034286</v>
-      </c>
       <c r="P40">
-        <v>2.9105302986204085</v>
+        <v>11.642121194481634</v>
       </c>
       <c r="Q40">
-        <v>11.642121194481634</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -3954,64 +3861,64 @@
       <c r="Z40">
         <v>0</v>
       </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
-      <c r="C41">
-        <v>6</v>
-      </c>
-      <c r="E41" t="s">
-        <v>62</v>
+      <c r="C41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="1">
+        <v>44677</v>
       </c>
       <c r="F41">
-        <v>45042</v>
+        <v>40.034315127251929</v>
       </c>
       <c r="G41">
-        <v>40.034315127251929</v>
+        <v>11.438375750643409</v>
       </c>
       <c r="H41">
-        <v>11.438375750643409</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>8.578781812982557</v>
       </c>
       <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>2.8595939376608519</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>28.59593937660852</v>
+      </c>
+      <c r="N41">
+        <v>5.7191878753217038</v>
+      </c>
+      <c r="O41">
         <v>8.578781812982557</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>2.8595939376608519</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>28.59593937660852</v>
-      </c>
-      <c r="O41">
+      <c r="P41">
         <v>5.7191878753217038</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
         <v>8.578781812982557</v>
       </c>
-      <c r="Q41">
-        <v>5.7191878753217038</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
       <c r="S41">
-        <v>8.578781812982557</v>
+        <v>0</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -4032,9 +3939,6 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
         <v>0</v>
       </c>
     </row>
